--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-16.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-16.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,21 +422,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ASP.NET 4.x module</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ASP.NET Core option</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -444,17 +432,77 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HTTP errors</t>
+          <t>@code</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CustomErrorModule</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Status Code Pages</t>
+          <t>{</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>protected override async Task</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>OnInitializedAsync()</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>var client =</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>factory.CreateClient("github");</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>var response = await response.EnsureStatusCode();</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>client.GetAsync("repos/dotnet/docs/issues");</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>var content = await response.Content.ReadAsStringAsync();</t>
         </is>
       </c>
     </row>
